--- a/Mechatronics/Hardware/Electrical/BEncoderBoard2/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BEncoderBoard2/BOM/EncoderBoard2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -142,6 +142,21 @@
     <t xml:space="preserve">Encoder:PinHeader_2x02_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">U2,U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITR1802_Conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG1218_Conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1, R2</t>
   </si>
   <si>
@@ -172,7 +187,7 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">D (1N4007G )</t>
   </si>
   <si>
     <t xml:space="preserve">Encoder:D_SMA</t>
@@ -250,28 +265,22 @@
     <t xml:space="preserve">Encoder:DFN-6_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG1218(+3.3v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:PinHeader_1x04_P2.54mm_Vertical</t>
+    <t xml:space="preserve">EG1218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7 (x2)</t>
   </si>
   <si>
     <t xml:space="preserve">TLE5009</t>
   </si>
   <si>
+    <t xml:space="preserve">Encoder:SO-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD1306</t>
   </si>
   <si>
-    <t xml:space="preserve">U7 (x2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITR1802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:OptointerrupterSmall</t>
   </si>
   <si>
     <t xml:space="preserve">C27 (x2)</t>
@@ -437,6 +446,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,10 +459,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,22 +823,34 @@
       <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>560</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,33 +858,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,50 +892,50 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,14 +945,14 @@
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>52</v>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,48 +962,48 @@
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>55</v>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>61</v>
+      <c r="C26" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,21 +1011,33 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="7" t="n">
         <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,14 +1047,14 @@
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>66</v>
+      <c r="C29" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,14 +1064,14 @@
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>69</v>
+      <c r="C30" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,14 +1081,14 @@
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>72</v>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>82402305</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,14 +1098,14 @@
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>73</v>
+      <c r="C32" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,73 +1115,75 @@
       <c r="B33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>78</v>
+      <c r="C33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="D36" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
-        <v>35</v>
+      <c r="A37" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>81</v>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Mechatronics/Hardware/Electrical/BEncoderBoard2/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BEncoderBoard2/BOM/EncoderBoard2.xlsx
@@ -145,7 +145,7 @@
     <t xml:space="preserve">U2,U3</t>
   </si>
   <si>
-    <t xml:space="preserve">ITR1802_Conn</t>
+    <t xml:space="preserve">ITR8102_Conn</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">SSD1306</t>
   </si>
   <si>
-    <t xml:space="preserve">ITR1802</t>
+    <t xml:space="preserve">ITR8102</t>
   </si>
   <si>
     <t xml:space="preserve">C27 (x2)</t>
@@ -549,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
